--- a/coefficient.xlsx
+++ b/coefficient.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="M2" s="0" t="inlineStr">
         <is>
-          <t>Path Loss</t>
+          <t>Path Loss(blood)</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <v>4.0489</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>7.14630855662269e+37</v>
+        <v>1.010987541479509e-23</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>5.8964</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>5.236866963779281e+56</v>
+        <v>1.452613611606551e-23</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>8.031700000000001</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3.389695071404434e+68</v>
+        <v>2.054049937019346e-23</v>
       </c>
     </row>
     <row r="6">
@@ -576,7 +576,7 @@
         <v>10.0315</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>5.180182066229264e+78</v>
+        <v>2.658781369621437e-23</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>11.7077</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>2.751703451116934e+88</v>
+        <v>3.210875503975389e-23</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>13.0432</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>7.173430157367036e+97</v>
+        <v>3.704728723191401e-23</v>
       </c>
     </row>
     <row r="9">
@@ -663,7 +663,7 @@
         <v>14.0876</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>7.195899585173777e+106</v>
+        <v>4.155998977178931e-23</v>
       </c>
     </row>
     <row r="10">
@@ -692,7 +692,7 @@
         <v>14.8994</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>2.059060284468739e+115</v>
+        <v>4.584244757119051e-23</v>
       </c>
     </row>
     <row r="11">
@@ -721,7 +721,7 @@
         <v>15.5355</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>1.362131229435778e+123</v>
+        <v>5.00812312876208e-23</v>
       </c>
     </row>
     <row r="12">
@@ -750,7 +750,7 @@
         <v>16.0376</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>1.896163052091553e+130</v>
+        <v>5.440422510427106e-23</v>
       </c>
     </row>
   </sheetData>

--- a/coefficient.xlsx
+++ b/coefficient.xlsx
@@ -387,7 +387,7 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col width="17.109375" customWidth="1" style="3" min="1" max="1"/>
     <col width="9" customWidth="1" style="3" min="2" max="2"/>
@@ -489,7 +489,7 @@
         <v>4.0489</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1.010987541479509e-23</v>
+        <v>1.368222852748161e-24</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>5.8964</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1.452613611606551e-23</v>
+        <v>1.965898745601315e-24</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>8.031700000000001</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>2.054049937019346e-23</v>
+        <v>2.779854300086597e-24</v>
       </c>
     </row>
     <row r="6">
@@ -576,7 +576,7 @@
         <v>10.0315</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>2.658781369621437e-23</v>
+        <v>3.598269297219462e-24</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>11.7077</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>3.210875503975389e-23</v>
+        <v>4.345447457680108e-24</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>13.0432</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3.704728723191401e-23</v>
+        <v>5.013805110679228e-24</v>
       </c>
     </row>
     <row r="9">
@@ -663,7 +663,7 @@
         <v>14.0876</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>4.155998977178931e-23</v>
+        <v>5.624532987075833e-24</v>
       </c>
     </row>
     <row r="10">
@@ -692,7 +692,7 @@
         <v>14.8994</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>4.584244757119051e-23</v>
+        <v>6.204100626306635e-24</v>
       </c>
     </row>
     <row r="11">
@@ -721,7 +721,7 @@
         <v>15.5355</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>5.00812312876208e-23</v>
+        <v>6.777757621148472e-24</v>
       </c>
     </row>
     <row r="12">
@@ -750,7 +750,7 @@
         <v>16.0376</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>5.440422510427106e-23</v>
+        <v>7.362811213754958e-24</v>
       </c>
     </row>
   </sheetData>
